--- a/Admin/Timesheets/Angelo/Timesheet Oct 10 to Oct 16 - Angelo Vacca.xlsx
+++ b/Admin/Timesheets/Angelo/Timesheet Oct 10 to Oct 16 - Angelo Vacca.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cowea\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C925E68E-C266-426D-BA7A-E53403006F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C683416-DCFC-4AEA-A840-8ECB3C6CB5A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -506,7 +506,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,25 +577,25 @@
         <v>2</v>
       </c>
       <c r="B5" s="10">
-        <v>44844</v>
+        <v>44851</v>
       </c>
       <c r="C5" s="10">
-        <v>44845</v>
+        <v>44852</v>
       </c>
       <c r="D5" s="10">
-        <v>44846</v>
+        <v>44853</v>
       </c>
       <c r="E5" s="10">
-        <v>44847</v>
+        <v>44854</v>
       </c>
       <c r="F5" s="10">
-        <v>44848</v>
+        <v>44855</v>
       </c>
       <c r="G5" s="10">
-        <v>44849</v>
+        <v>44856</v>
       </c>
       <c r="H5" s="10">
-        <v>44850</v>
+        <v>44857</v>
       </c>
       <c r="I5" s="11" t="s">
         <v>5</v>
@@ -605,9 +605,7 @@
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
+      <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -616,19 +614,15 @@
       <c r="H6" s="3"/>
       <c r="I6" s="4">
         <f t="shared" ref="I6:I14" si="0">SUM(B6:H6)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -636,7 +630,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -667,14 +661,12 @@
         <v>0.5</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="1">
-        <v>0.5</v>
-      </c>
+      <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="3"/>
       <c r="I9" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -703,11 +695,11 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="I11" s="4">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -786,7 +778,7 @@
       </c>
       <c r="F16" s="4">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G16" s="4">
         <f t="shared" si="3"/>
@@ -794,11 +786,11 @@
       </c>
       <c r="H16" s="4">
         <f t="shared" si="3"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="I16" s="4">
         <f>SUM(I6:I15)</f>
-        <v>4.75</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
